--- a/submission/table_S13_classification_model_pairwise_stats.xlsx
+++ b/submission/table_S13_classification_model_pairwise_stats.xlsx
@@ -354,7 +354,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>p.value</t>
+          <t>p.value.adj</t>
         </is>
       </c>
     </row>
